--- a/db/Damkar_xls.xlsx
+++ b/db/Damkar_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>NOMOR KEJADIAN</t>
   </si>
@@ -47,6 +47,12 @@
     <t>JUMLAH PENGUNGSIAN</t>
   </si>
   <si>
+    <t>koordinat X</t>
+  </si>
+  <si>
+    <t>koordinat Y</t>
+  </si>
+  <si>
     <t>KODE</t>
   </si>
   <si>
@@ -89,6 +95,12 @@
     <t>KANTOR</t>
   </si>
   <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
     <t>ACEH TENGGARA</t>
   </si>
   <si>
@@ -101,6 +113,12 @@
     <t>RUMAH</t>
   </si>
   <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
     <t>ACEH TIMUR</t>
   </si>
   <si>
@@ -110,6 +128,12 @@
     <t>KIOS</t>
   </si>
   <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
     <t>ACEH TENGAH</t>
   </si>
   <si>
@@ -122,6 +146,12 @@
     <t>KOS-KOSAN</t>
   </si>
   <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
     <t>ACEH BARAT</t>
   </si>
   <si>
@@ -134,10 +164,19 @@
     <t>RUMAH SAKIT</t>
   </si>
   <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
     <t>ACEH BESAR</t>
   </si>
   <si>
     <t>Kebakaran Lainnya</t>
+  </si>
+  <si>
+    <t>0,11</t>
   </si>
 </sst>
 </file>
@@ -147,11 +186,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,6 +217,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -187,9 +232,10 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,7 +245,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558ED5"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF6666FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -265,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +334,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,11 +362,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,7 +421,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF6666FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -387,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:P8"/>
+      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -435,349 +495,393 @@
       <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="n">
         <v>1103</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="D4" s="9" t="n">
+        <v>1104</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="L4" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>245600000</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>250</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="9" t="n">
-        <v>250000000</v>
-      </c>
-      <c r="P3" s="9" t="n">
+      <c r="G6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>567</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>5000000000</v>
+      </c>
+      <c r="P6" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="Q6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="n">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>1107</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="N7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>4562890000</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>4562890000</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>245600000</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>1105</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>250</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>1106</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>567</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>5000000000</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1107</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>800</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>4562890000</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>1108</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>800</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>4562890000</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -787,6 +891,8 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/db/Damkar_xls.xlsx
+++ b/db/Damkar_xls.xlsx
@@ -186,12 +186,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,25 +213,17 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,10 +325,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +349,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,7 +437,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -498,7 +485,7 @@
       <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -531,10 +518,10 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
@@ -545,52 +532,52 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="8" t="n">
         <v>1103</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="10" t="n">
         <v>250000000</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="s">
@@ -601,52 +588,52 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="8" t="n">
         <v>1104</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="9" t="n">
         <v>245600000</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="9" t="n">
         <v>8</v>
       </c>
       <c r="Q4" s="0" t="s">
@@ -657,52 +644,52 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="8" t="n">
         <v>1105</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="O5" s="9" t="n">
         <v>1000000000</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="s">
@@ -713,52 +700,52 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="8" t="n">
         <v>1106</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="8" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="8" t="n">
         <v>567</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="10" t="n">
+      <c r="O6" s="9" t="n">
         <v>5000000000</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="9" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="0" t="s">
@@ -769,52 +756,52 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="8" t="n">
         <v>1107</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="10" t="n">
+      <c r="O7" s="9" t="n">
         <v>4562890000</v>
       </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="9" t="n">
         <v>100</v>
       </c>
       <c r="Q7" s="0" t="s">
@@ -824,53 +811,53 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="8" t="n">
         <v>1108</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="10" t="n">
+      <c r="O8" s="9" t="n">
         <v>4562890000</v>
       </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="9" t="n">
         <v>100</v>
       </c>
       <c r="Q8" s="0" t="s">
